--- a/public/Servicios.xlsx
+++ b/public/Servicios.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>_id</t>
   </si>
@@ -68,123 +68,6 @@
   </si>
   <si>
     <t>Fecha de creación</t>
-  </si>
-  <si>
-    <t>"5f4ffe962fdb8aaf1f612161"</t>
-  </si>
-  <si>
-    <t>1016045882</t>
-  </si>
-  <si>
-    <t>alejandra tapias</t>
-  </si>
-  <si>
-    <t>ALDIA VERBENAL</t>
-  </si>
-  <si>
-    <t>AK 24 - Cl 39, Bogotá, Colombia</t>
-  </si>
-  <si>
-    <t>4.627313184307588, -74.07520405948162</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Promo Descuento / 1, </t>
-  </si>
-  <si>
-    <t>2020-09-03</t>
-  </si>
-  <si>
-    <t>6:00 PM - 8:00 PM</t>
-  </si>
-  <si>
-    <t>compra desde diamarket</t>
-  </si>
-  <si>
-    <t>Efectivo</t>
-  </si>
-  <si>
-    <t>Diamarket/1599078038075</t>
-  </si>
-  <si>
-    <t>Asignado a supermercado</t>
-  </si>
-  <si>
-    <t>"5f4fff212fdb8aaf1f612163"</t>
-  </si>
-  <si>
-    <t>4.62731318430759, -74.0752040594816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Promo Descuento / 11, </t>
-  </si>
-  <si>
-    <t>2020-09-04</t>
-  </si>
-  <si>
-    <t>2:00 PM - 4:00 PM</t>
-  </si>
-  <si>
-    <t>Diamarket/1599078177353</t>
-  </si>
-  <si>
-    <t>"5f4fff7c2fdb8aaf1f612165"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Promo Creditos / 1, </t>
-  </si>
-  <si>
-    <t>2020-09-02</t>
-  </si>
-  <si>
-    <t>Diamarket/1599078268129</t>
-  </si>
-  <si>
-    <t>Entregado</t>
-  </si>
-  <si>
-    <t>"5f50043a2fdb8aaf1f612168"</t>
-  </si>
-  <si>
-    <t>ALDIA VILLALUZ 1</t>
-  </si>
-  <si>
-    <t>Cra. 24 #27, Bogotá, Colombia</t>
-  </si>
-  <si>
-    <t>4.629550872185388, -74.07537572085857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aromatel doy pack lavanda mora 425 ml / 7, </t>
-  </si>
-  <si>
-    <t>1:00 PM - 3:00 PM</t>
-  </si>
-  <si>
-    <t>Dataphone</t>
-  </si>
-  <si>
-    <t>Diamarket/1599079482931</t>
-  </si>
-  <si>
-    <t>Pendiente</t>
-  </si>
-  <si>
-    <t>"5f500a0c2fdb8aaf1f61216b"</t>
-  </si>
-  <si>
-    <t>4:00 PM - 6:00 PM</t>
-  </si>
-  <si>
-    <t>Diamarket/1599080972272</t>
-  </si>
-  <si>
-    <t>"5f500c7d2fdb8aaf1f61216e"</t>
-  </si>
-  <si>
-    <t>Diamarket/1599081597757</t>
   </si>
 </sst>
 </file>
@@ -220,9 +103,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -562,7 +444,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S7"/>
+  <dimension ref="A1:S1"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
@@ -622,342 +504,6 @@
       </c>
       <c r="S1" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L2" t="s">
-        <v>30</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2" t="s">
-        <v>31</v>
-      </c>
-      <c r="P2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>25</v>
-      </c>
-      <c r="R2">
-        <v>12875</v>
-      </c>
-      <c r="S2" s="1">
-        <v>44076.84766297454</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I3" t="s">
-        <v>36</v>
-      </c>
-      <c r="J3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L3" t="s">
-        <v>30</v>
-      </c>
-      <c r="M3">
-        <v>49500</v>
-      </c>
-      <c r="N3" t="s">
-        <v>38</v>
-      </c>
-      <c r="P3" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>25</v>
-      </c>
-      <c r="R3">
-        <v>47125</v>
-      </c>
-      <c r="S3" s="1">
-        <v>44077.84927497685</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" t="s">
-        <v>40</v>
-      </c>
-      <c r="I4" t="s">
-        <v>41</v>
-      </c>
-      <c r="J4" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" t="s">
-        <v>29</v>
-      </c>
-      <c r="L4" t="s">
-        <v>30</v>
-      </c>
-      <c r="M4">
-        <v>12750</v>
-      </c>
-      <c r="N4" t="s">
-        <v>42</v>
-      </c>
-      <c r="P4" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>25</v>
-      </c>
-      <c r="R4" t="s">
-        <v>25</v>
-      </c>
-      <c r="S4" s="1">
-        <v>44076.850325625</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G5" t="s">
-        <v>48</v>
-      </c>
-      <c r="H5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" t="s">
-        <v>27</v>
-      </c>
-      <c r="J5" t="s">
-        <v>49</v>
-      </c>
-      <c r="K5" t="s">
-        <v>29</v>
-      </c>
-      <c r="L5" t="s">
-        <v>50</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5" t="s">
-        <v>51</v>
-      </c>
-      <c r="P5" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>25</v>
-      </c>
-      <c r="R5">
-        <v>23050</v>
-      </c>
-      <c r="S5" s="1">
-        <v>44076.86438583334</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6" t="s">
-        <v>47</v>
-      </c>
-      <c r="G6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" t="s">
-        <v>27</v>
-      </c>
-      <c r="J6" t="s">
-        <v>54</v>
-      </c>
-      <c r="K6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L6" t="s">
-        <v>30</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6" t="s">
-        <v>55</v>
-      </c>
-      <c r="P6" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>25</v>
-      </c>
-      <c r="R6">
-        <v>12875</v>
-      </c>
-      <c r="S6" s="1">
-        <v>44076.88162356481</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J7" t="s">
-        <v>37</v>
-      </c>
-      <c r="K7" t="s">
-        <v>29</v>
-      </c>
-      <c r="L7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7" t="s">
-        <v>57</v>
-      </c>
-      <c r="P7" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>25</v>
-      </c>
-      <c r="R7">
-        <v>12875</v>
-      </c>
-      <c r="S7" s="1">
-        <v>44076.888862974534</v>
       </c>
     </row>
   </sheetData>
